--- a/Kropevnetskiy_Nestor_1_rapport_analyse_072022/Modèle-audit-SEO.xlsx
+++ b/Kropevnetskiy_Nestor_1_rapport_analyse_072022/Modèle-audit-SEO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33753\Desktop\LaPanthere\Kropevnetskiy_Nestor_1_rapport_analyse_072022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33753\Desktop\NK_P4_optimisez-un-site-web-072022\Kropevnetskiy_Nestor_1_rapport_analyse_072022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -65,33 +65,21 @@
     <t>reduire la taille des images pour augmenter le chargement du site</t>
   </si>
   <si>
-    <t>toutes les images</t>
-  </si>
-  <si>
     <t>accessiblité</t>
   </si>
   <si>
     <t>mauvaises réferences</t>
   </si>
   <si>
-    <t>plusieurs villes identifiées</t>
-  </si>
-  <si>
     <t>indiquer la bonne ville et les bonnes images en alt"" pour les mal voyants</t>
   </si>
   <si>
-    <t>keywords</t>
-  </si>
-  <si>
     <t>mauvaise structure des blocs</t>
   </si>
   <si>
     <t>bien structurer les balises</t>
   </si>
   <si>
-    <t>partie texte</t>
-  </si>
-  <si>
     <t>juxtaposition balises</t>
   </si>
   <si>
@@ -104,9 +92,6 @@
     <t>ajouter margin/padding/font-size</t>
   </si>
   <si>
-    <t>footer avec des liens</t>
-  </si>
-  <si>
     <t>content</t>
   </si>
   <si>
@@ -116,9 +101,6 @@
     <t>mettre l'essentiel au titre et une information plus exhaustive mais precise en meta description pour decrire la page</t>
   </si>
   <si>
-    <t>le site</t>
-  </si>
-  <si>
     <t>définir pour une meilleure visibilité</t>
   </si>
   <si>
@@ -137,9 +119,6 @@
     <t>toujours donner un nom aux liens de réseaux sociaux</t>
   </si>
   <si>
-    <t>icones réseaux</t>
-  </si>
-  <si>
     <t xml:space="preserve">laisser de l'espace entre des liens de partenaires </t>
   </si>
   <si>
@@ -149,9 +128,6 @@
     <t>toujours mettre viewport dans le &lt;head&gt;</t>
   </si>
   <si>
-    <t>&lt;head&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">accessibilité </t>
   </si>
   <si>
@@ -170,9 +146,6 @@
     <t xml:space="preserve">ne pas saturer la pages avec liens inutiles ou infonctionnels </t>
   </si>
   <si>
-    <t>&lt;footer&gt;</t>
-  </si>
-  <si>
     <t>il y a trop de liens au niveau de &lt;footer&gt; et ils sont innactifs</t>
   </si>
   <si>
@@ -185,9 +158,6 @@
     <t>toujours verifier si les liens tels que Acceuil ou Contacts scrollent bien sur la page</t>
   </si>
   <si>
-    <t>navigation</t>
-  </si>
-  <si>
     <t>liens vers les pages sont décalés</t>
   </si>
   <si>
@@ -203,9 +173,6 @@
     <t>toujours donner un nom a nos pages html</t>
   </si>
   <si>
-    <t>fichiers html</t>
-  </si>
-  <si>
     <t>SEO</t>
   </si>
   <si>
@@ -224,7 +191,40 @@
     <t>ne jamais inserer le texte sous forme d'image pour ne pas ralentir le chargement de la page</t>
   </si>
   <si>
-    <t>bloc *2</t>
+    <t>https://www.metadosi.fr/webp-format-image-google/</t>
+  </si>
+  <si>
+    <t>https://www.definitions-marketing.com/definition/localisation-site-web/</t>
+  </si>
+  <si>
+    <t>plusieurs villes identifiées / informations fausses ou eronnées</t>
+  </si>
+  <si>
+    <t>https://www.referenseo.com/guide-seo/balises-h1-h2-h3/</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Learn/CSS/Styling_text/Styling_links</t>
+  </si>
+  <si>
+    <t>https://www.journaldunet.fr/web-tech/dictionnaire-du-webmastering/1203495-meta-description-definition/#:~:text=La%20meta%20description%20est%20une,pour%20r%C3%A9f%C3%A9rencer%20les%20sites%20Internet.</t>
+  </si>
+  <si>
+    <t>https://web.dev/</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Viewport_meta_tag</t>
+  </si>
+  <si>
+    <t>https://www.semjuice.com/definition/footer</t>
+  </si>
+  <si>
+    <t>https://deux.io/navigation-facettes-seo/</t>
+  </si>
+  <si>
+    <t>https://www.seo-reference.net/optimisation/fichier.html</t>
+  </si>
+  <si>
+    <t>https://www.aurone.com/blog/image-seo-12-conseils-pour-plus-de-trafic-organique/</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -594,204 +594,204 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>64</v>
